--- a/4.11.7.11.xlsx
+++ b/4.11.7.11.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\58298\Documents\GitHub\texaspoker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29458196-CAB5-45D0-B998-EBE2744BD106}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,7 +58,2003 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet!$A$1:$DM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="117"/>
+                <c:pt idx="0">
+                  <c:v>9850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10850</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10550</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10650</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12550</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12050</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10650</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10150</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12250</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11950</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11450</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10850</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10350</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9450</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12050</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11550</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10650</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9950</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10650</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10350</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9850</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9350</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9850</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9350</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7050</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8350</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7150</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6550</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7150</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>20850</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84EE-4EFD-9587-60A7DF568C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet!$A$2:$DM$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="117"/>
+                <c:pt idx="0">
+                  <c:v>9950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9650</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7550</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6950</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9450</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10450</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10050</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9650</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9550</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12750</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12250</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17550</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17450</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17350</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17300</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22050</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21150</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>21050</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20950</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20750</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20050</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19950</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19900</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19750</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18850</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18650</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18450</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17950</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17900</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17850</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>24550</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24450</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>24300</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23950</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23150</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23100</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22750</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22650</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21450</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>19250</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>19150</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18950</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18850</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17650</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17550</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17450</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17350</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17250</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16650</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>20150</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>19300</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>18450</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>24950</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23850</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23250</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>23150</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>22300</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>20700</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18950</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>61800</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>85550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84EE-4EFD-9587-60A7DF568C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet!$A$3:$DM$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="117"/>
+                <c:pt idx="0">
+                  <c:v>9950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9650</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8950</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8750</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8450</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8050</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7950</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7750</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7350</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7150</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6950</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6850</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6650</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6450</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6350</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5850</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5650</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5450</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5150</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4850</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3950</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3650</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-84EE-4EFD-9587-60A7DF568C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="505060768"/>
+        <c:axId val="505068312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="505060768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505068312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="505068312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505060768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6B3663-23F8-4A94-8078-BD3B328EF8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +2100,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +2132,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +2184,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,14 +2377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:117">
+    <row r="1" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>9850</v>
       </c>
@@ -699,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:117">
+    <row r="2" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9950</v>
       </c>
@@ -1052,7 +3092,7 @@
         <v>85550</v>
       </c>
     </row>
-    <row r="3" spans="1:117">
+    <row r="3" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9950</v>
       </c>
@@ -1407,5 +3447,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>